--- a/files/30_11_2022/route_number_4.xlsx
+++ b/files/30_11_2022/route_number_4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,1104 +435,727 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>677914</v>
+        <v>607770</v>
       </c>
       <c r="B2">
-        <v>682299</v>
+        <v>644082</v>
       </c>
       <c r="C2">
-        <v>37.6036388</v>
+        <v>37.47888895</v>
       </c>
       <c r="D2">
-        <v>55.66500245</v>
+        <v>55.14561139</v>
       </c>
       <c r="E2">
-        <v>37.59915842</v>
+        <v>37.50731723</v>
       </c>
       <c r="F2">
-        <v>55.65442122</v>
+        <v>55.36663026</v>
       </c>
       <c r="G2">
-        <v>13.96</v>
+        <v>46.05</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>3.960000000000001</v>
+        <v>36.05</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>682299</v>
+        <v>644082</v>
       </c>
       <c r="B3">
-        <v>634689</v>
+        <v>634835</v>
       </c>
       <c r="C3">
-        <v>37.59915842</v>
+        <v>37.50731723</v>
       </c>
       <c r="D3">
-        <v>55.65442122</v>
+        <v>55.36663026</v>
       </c>
       <c r="E3">
-        <v>37.60317894</v>
+        <v>37.48642894</v>
       </c>
       <c r="F3">
-        <v>55.65380369</v>
+        <v>55.4227017</v>
       </c>
       <c r="G3">
-        <v>12.51</v>
+        <v>28.61</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>2.51</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>634689</v>
+        <v>634835</v>
       </c>
       <c r="B4">
-        <v>636065</v>
+        <v>687690</v>
       </c>
       <c r="C4">
-        <v>37.60317894</v>
+        <v>37.48642894</v>
       </c>
       <c r="D4">
-        <v>55.65380369</v>
+        <v>55.4227017</v>
       </c>
       <c r="E4">
-        <v>37.61472807</v>
+        <v>37.69250621</v>
       </c>
       <c r="F4">
-        <v>55.6542329</v>
+        <v>55.43074391</v>
       </c>
       <c r="G4">
-        <v>12.6</v>
+        <v>34.78</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>636065</v>
+        <v>687690</v>
       </c>
       <c r="B5">
-        <v>606003</v>
+        <v>689143</v>
       </c>
       <c r="C5">
-        <v>37.61472807</v>
+        <v>37.69250621</v>
       </c>
       <c r="D5">
-        <v>55.6542329</v>
+        <v>55.43074391</v>
       </c>
       <c r="E5">
-        <v>37.61820989</v>
+        <v>37.72729812</v>
       </c>
       <c r="F5">
-        <v>55.66706088</v>
+        <v>55.44068133</v>
       </c>
       <c r="G5">
-        <v>13.24</v>
+        <v>13.3</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>3.24</v>
+        <v>3.300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>606003</v>
+        <v>689143</v>
       </c>
       <c r="B6">
-        <v>606091</v>
+        <v>606531</v>
       </c>
       <c r="C6">
-        <v>37.61820989</v>
+        <v>37.72729812</v>
       </c>
       <c r="D6">
-        <v>55.66706088</v>
+        <v>55.44068133</v>
       </c>
       <c r="E6">
-        <v>37.61373827</v>
+        <v>37.77204935</v>
       </c>
       <c r="F6">
-        <v>55.63433178</v>
+        <v>55.43771193</v>
       </c>
       <c r="G6">
-        <v>14.33</v>
+        <v>15.18</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>4.33</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>606091</v>
+        <v>606531</v>
       </c>
       <c r="B7">
-        <v>636066</v>
+        <v>687671</v>
       </c>
       <c r="C7">
-        <v>37.61373827</v>
+        <v>37.77204935</v>
       </c>
       <c r="D7">
-        <v>55.63433178</v>
+        <v>55.43771193</v>
       </c>
       <c r="E7">
-        <v>37.59845768</v>
+        <v>37.76888725</v>
       </c>
       <c r="F7">
-        <v>55.63825157</v>
+        <v>55.40069077</v>
       </c>
       <c r="G7">
-        <v>12.85</v>
+        <v>20.03</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>2.85</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>636066</v>
+        <v>687671</v>
       </c>
       <c r="B8">
-        <v>676352</v>
+        <v>634873</v>
       </c>
       <c r="C8">
-        <v>37.59845768</v>
+        <v>37.76888725</v>
       </c>
       <c r="D8">
-        <v>55.63825157</v>
+        <v>55.40069077</v>
       </c>
       <c r="E8">
-        <v>37.61498647</v>
+        <v>37.80494926</v>
       </c>
       <c r="F8">
-        <v>55.62604111</v>
+        <v>55.39807174</v>
       </c>
       <c r="G8">
-        <v>15.19</v>
+        <v>15.55</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>5.190000000000001</v>
+        <v>5.550000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>676352</v>
+        <v>634873</v>
       </c>
       <c r="B9">
-        <v>619783</v>
+        <v>688213</v>
       </c>
       <c r="C9">
-        <v>37.61498647</v>
+        <v>37.80494926</v>
       </c>
       <c r="D9">
-        <v>55.62604111</v>
+        <v>55.39807174</v>
       </c>
       <c r="E9">
-        <v>37.60788706</v>
+        <v>37.75318622</v>
       </c>
       <c r="F9">
-        <v>55.61586281</v>
+        <v>55.5052417</v>
       </c>
       <c r="G9">
-        <v>13.57</v>
+        <v>23.97</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>3.57</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>619783</v>
+        <v>688213</v>
       </c>
       <c r="B10">
-        <v>686158</v>
+        <v>676383</v>
       </c>
       <c r="C10">
-        <v>37.60788706</v>
+        <v>37.75318622</v>
       </c>
       <c r="D10">
-        <v>55.61586281</v>
+        <v>55.5052417</v>
       </c>
       <c r="E10">
-        <v>37.60521985</v>
+        <v>37.7555994</v>
       </c>
       <c r="F10">
-        <v>55.59406093</v>
+        <v>55.51114108</v>
       </c>
       <c r="G10">
-        <v>13.28</v>
+        <v>13.38</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>3.279999999999999</v>
+        <v>3.379999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>686158</v>
+        <v>676383</v>
       </c>
       <c r="B11">
-        <v>606017</v>
+        <v>608089</v>
       </c>
       <c r="C11">
-        <v>37.60521985</v>
+        <v>37.7555994</v>
       </c>
       <c r="D11">
-        <v>55.59406093</v>
+        <v>55.51114108</v>
       </c>
       <c r="E11">
-        <v>37.61294993</v>
+        <v>37.79934707</v>
       </c>
       <c r="F11">
-        <v>55.59582155</v>
+        <v>55.62657683</v>
       </c>
       <c r="G11">
-        <v>12.06</v>
+        <v>30.16</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>2.06</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>606017</v>
+        <v>608089</v>
       </c>
       <c r="B12">
-        <v>688383</v>
+        <v>689120</v>
       </c>
       <c r="C12">
-        <v>37.61294993</v>
+        <v>37.79934707</v>
       </c>
       <c r="D12">
-        <v>55.59582155</v>
+        <v>55.62657683</v>
       </c>
       <c r="E12">
-        <v>37.52102991</v>
+        <v>37.86388616</v>
       </c>
       <c r="F12">
-        <v>55.533924</v>
+        <v>55.62913314</v>
       </c>
       <c r="G12">
-        <v>24.64</v>
+        <v>23.67</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>14.64</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>688383</v>
+        <v>689120</v>
       </c>
       <c r="B13">
-        <v>699572</v>
+        <v>669424</v>
       </c>
       <c r="C13">
-        <v>37.52102991</v>
+        <v>37.86388616</v>
       </c>
       <c r="D13">
-        <v>55.533924</v>
+        <v>55.62913314</v>
       </c>
       <c r="E13">
-        <v>37.56154602</v>
+        <v>37.91510613</v>
       </c>
       <c r="F13">
-        <v>55.5036913</v>
+        <v>55.66506376</v>
       </c>
       <c r="G13">
-        <v>19.64</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>9.640000000000001</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>699572</v>
+        <v>669424</v>
       </c>
       <c r="B14">
-        <v>636462</v>
+        <v>635516</v>
       </c>
       <c r="C14">
-        <v>37.56154602</v>
+        <v>37.91510613</v>
       </c>
       <c r="D14">
-        <v>55.5036913</v>
+        <v>55.66506376</v>
       </c>
       <c r="E14">
-        <v>37.581907</v>
+        <v>37.90115806</v>
       </c>
       <c r="F14">
-        <v>55.50582419</v>
+        <v>55.69625293</v>
       </c>
       <c r="G14">
-        <v>14.41</v>
+        <v>21.08</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>4.41</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>636462</v>
+        <v>635516</v>
       </c>
       <c r="B15">
-        <v>634878</v>
+        <v>622395</v>
       </c>
       <c r="C15">
-        <v>37.581907</v>
+        <v>37.90115806</v>
       </c>
       <c r="D15">
-        <v>55.50582419</v>
+        <v>55.69625293</v>
       </c>
       <c r="E15">
-        <v>37.55146845</v>
+        <v>37.88732003</v>
       </c>
       <c r="F15">
-        <v>55.44994428</v>
+        <v>55.79186399</v>
       </c>
       <c r="G15">
-        <v>21.89</v>
+        <v>29.55</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>11.89</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>634878</v>
+        <v>622395</v>
       </c>
       <c r="B16">
-        <v>682294</v>
+        <v>682276</v>
       </c>
       <c r="C16">
-        <v>37.55146845</v>
+        <v>37.88732003</v>
       </c>
       <c r="D16">
-        <v>55.44994428</v>
+        <v>55.79186399</v>
       </c>
       <c r="E16">
-        <v>37.53939815</v>
+        <v>37.93010642</v>
       </c>
       <c r="F16">
-        <v>55.43404178</v>
+        <v>55.80013206</v>
       </c>
       <c r="G16">
-        <v>14.49</v>
+        <v>18.77</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>4.49</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>682294</v>
+        <v>682276</v>
       </c>
       <c r="B17">
-        <v>635726</v>
+        <v>693658</v>
       </c>
       <c r="C17">
-        <v>37.53939815</v>
+        <v>37.93010642</v>
       </c>
       <c r="D17">
-        <v>55.43404178</v>
+        <v>55.80013206</v>
       </c>
       <c r="E17">
-        <v>37.5439267</v>
+        <v>37.97118751</v>
       </c>
       <c r="F17">
-        <v>55.42775261</v>
+        <v>55.79587067</v>
       </c>
       <c r="G17">
-        <v>12.4</v>
+        <v>15.43</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>2.4</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>635726</v>
+        <v>693658</v>
       </c>
       <c r="B18">
-        <v>634973</v>
+        <v>635286</v>
       </c>
       <c r="C18">
-        <v>37.5439267</v>
+        <v>37.97118751</v>
       </c>
       <c r="D18">
-        <v>55.42775261</v>
+        <v>55.79587067</v>
       </c>
       <c r="E18">
-        <v>37.56405994</v>
+        <v>38.03812603</v>
       </c>
       <c r="F18">
-        <v>55.41088221</v>
+        <v>55.7245306</v>
       </c>
       <c r="G18">
-        <v>14.53</v>
+        <v>33.9</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>4.530000000000001</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>634973</v>
+        <v>635286</v>
       </c>
       <c r="B19">
-        <v>622314</v>
+        <v>686130</v>
       </c>
       <c r="C19">
-        <v>37.56405994</v>
+        <v>38.03812603</v>
       </c>
       <c r="D19">
-        <v>55.41088221</v>
+        <v>55.7245306</v>
       </c>
       <c r="E19">
-        <v>37.61956064</v>
+        <v>38.2655567</v>
       </c>
       <c r="F19">
-        <v>55.4480981</v>
+        <v>55.77427025</v>
       </c>
       <c r="G19">
-        <v>19.71</v>
+        <v>46.49</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>9.710000000000001</v>
+        <v>36.49</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>622314</v>
+        <v>686130</v>
       </c>
       <c r="B20">
-        <v>687690</v>
+        <v>634558</v>
       </c>
       <c r="C20">
-        <v>37.61956064</v>
+        <v>38.2655567</v>
       </c>
       <c r="D20">
-        <v>55.4480981</v>
+        <v>55.77427025</v>
       </c>
       <c r="E20">
-        <v>37.69250621</v>
+        <v>37.97625914</v>
       </c>
       <c r="F20">
-        <v>55.43074391</v>
+        <v>55.93940045</v>
       </c>
       <c r="G20">
-        <v>21.43</v>
+        <v>61.87</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>11.43</v>
+        <v>51.87</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>687690</v>
+        <v>634558</v>
       </c>
       <c r="B21">
-        <v>689143</v>
+        <v>688219</v>
       </c>
       <c r="C21">
-        <v>37.69250621</v>
+        <v>37.97625914</v>
       </c>
       <c r="D21">
-        <v>55.43074391</v>
+        <v>55.93940045</v>
       </c>
       <c r="E21">
-        <v>37.72729812</v>
+        <v>37.86093866</v>
       </c>
       <c r="F21">
-        <v>55.44068133</v>
+        <v>55.95864023</v>
       </c>
       <c r="G21">
-        <v>13.3</v>
+        <v>30.54</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>3.300000000000001</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>689143</v>
+        <v>688219</v>
       </c>
       <c r="B22">
-        <v>688343</v>
+        <v>622383</v>
       </c>
       <c r="C22">
-        <v>37.72729812</v>
+        <v>37.86093866</v>
       </c>
       <c r="D22">
-        <v>55.44068133</v>
+        <v>55.95864023</v>
       </c>
       <c r="E22">
-        <v>37.74595076</v>
+        <v>37.8416069</v>
       </c>
       <c r="F22">
-        <v>55.45084059</v>
+        <v>56.01107336</v>
       </c>
       <c r="G22">
-        <v>14.18</v>
+        <v>22.59</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>4.18</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>688343</v>
+        <v>622383</v>
       </c>
       <c r="B23">
-        <v>606531</v>
+        <v>629736</v>
       </c>
       <c r="C23">
-        <v>37.74595076</v>
+        <v>37.8416069</v>
       </c>
       <c r="D23">
-        <v>55.45084059</v>
+        <v>56.01107336</v>
       </c>
       <c r="E23">
-        <v>37.77204935</v>
+        <v>37.57212724</v>
       </c>
       <c r="F23">
-        <v>55.43771193</v>
+        <v>55.82137335</v>
       </c>
       <c r="G23">
-        <v>14.1</v>
+        <v>49.57</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>4.1</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>606531</v>
+        <v>629736</v>
       </c>
       <c r="B24">
-        <v>687671</v>
+        <v>683128</v>
       </c>
       <c r="C24">
-        <v>37.77204935</v>
+        <v>37.57212724</v>
       </c>
       <c r="D24">
-        <v>55.43771193</v>
+        <v>55.82137335</v>
       </c>
       <c r="E24">
-        <v>37.76888725</v>
+        <v>37.49277681</v>
       </c>
       <c r="F24">
-        <v>55.40069077</v>
+        <v>55.77537392</v>
       </c>
       <c r="G24">
-        <v>20.03</v>
+        <v>22.64</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>10.03</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>687671</v>
+        <v>683128</v>
       </c>
       <c r="B25">
-        <v>634873</v>
+        <v>682299</v>
       </c>
       <c r="C25">
-        <v>37.76888725</v>
+        <v>37.49277681</v>
       </c>
       <c r="D25">
-        <v>55.40069077</v>
+        <v>55.77537392</v>
       </c>
       <c r="E25">
-        <v>37.80494926</v>
+        <v>37.59915842</v>
       </c>
       <c r="F25">
-        <v>55.39807174</v>
+        <v>55.65442122</v>
       </c>
       <c r="G25">
-        <v>15.55</v>
+        <v>32.82</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>5.550000000000001</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>634873</v>
+        <v>682299</v>
       </c>
       <c r="B26">
-        <v>688213</v>
+        <v>634659</v>
       </c>
       <c r="C26">
-        <v>37.80494926</v>
+        <v>37.59915842</v>
       </c>
       <c r="D26">
-        <v>55.39807174</v>
+        <v>55.65442122</v>
       </c>
       <c r="E26">
-        <v>37.75318622</v>
+        <v>37.70811965</v>
       </c>
       <c r="F26">
-        <v>55.5052417</v>
+        <v>55.73308405</v>
       </c>
       <c r="G26">
-        <v>23.97</v>
+        <v>29.1</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>13.97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>688213</v>
-      </c>
-      <c r="B27">
-        <v>676383</v>
-      </c>
-      <c r="C27">
-        <v>37.75318622</v>
-      </c>
-      <c r="D27">
-        <v>55.5052417</v>
-      </c>
-      <c r="E27">
-        <v>37.7555994</v>
-      </c>
-      <c r="F27">
-        <v>55.51114108</v>
-      </c>
-      <c r="G27">
-        <v>13.38</v>
-      </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>3.379999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>676383</v>
-      </c>
-      <c r="B28">
-        <v>683733</v>
-      </c>
-      <c r="C28">
-        <v>37.7555994</v>
-      </c>
-      <c r="D28">
-        <v>55.51114108</v>
-      </c>
-      <c r="E28">
-        <v>37.72008091</v>
-      </c>
-      <c r="F28">
-        <v>55.54343251</v>
-      </c>
-      <c r="G28">
-        <v>22.73</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>12.73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>683733</v>
-      </c>
-      <c r="B29">
-        <v>676995</v>
-      </c>
-      <c r="C29">
-        <v>37.72008091</v>
-      </c>
-      <c r="D29">
-        <v>55.54343251</v>
-      </c>
-      <c r="E29">
-        <v>37.69127991</v>
-      </c>
-      <c r="F29">
-        <v>55.51300243</v>
-      </c>
-      <c r="G29">
-        <v>23.45</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>676995</v>
-      </c>
-      <c r="B30">
-        <v>635295</v>
-      </c>
-      <c r="C30">
-        <v>37.69127991</v>
-      </c>
-      <c r="D30">
-        <v>55.51300243</v>
-      </c>
-      <c r="E30">
-        <v>37.54300697</v>
-      </c>
-      <c r="F30">
-        <v>55.47770248</v>
-      </c>
-      <c r="G30">
-        <v>30.78</v>
-      </c>
-      <c r="H30">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>20.78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>635295</v>
-      </c>
-      <c r="B31">
-        <v>634835</v>
-      </c>
-      <c r="C31">
-        <v>37.54300697</v>
-      </c>
-      <c r="D31">
-        <v>55.47770248</v>
-      </c>
-      <c r="E31">
-        <v>37.48642894</v>
-      </c>
-      <c r="F31">
-        <v>55.4227017</v>
-      </c>
-      <c r="G31">
-        <v>25.6</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>634835</v>
-      </c>
-      <c r="B32">
-        <v>627765</v>
-      </c>
-      <c r="C32">
-        <v>37.48642894</v>
-      </c>
-      <c r="D32">
-        <v>55.4227017</v>
-      </c>
-      <c r="E32">
-        <v>37.4814379</v>
-      </c>
-      <c r="F32">
-        <v>55.41846338</v>
-      </c>
-      <c r="G32">
-        <v>11.57</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>627765</v>
-      </c>
-      <c r="B33">
-        <v>644082</v>
-      </c>
-      <c r="C33">
-        <v>37.4814379</v>
-      </c>
-      <c r="D33">
-        <v>55.41846338</v>
-      </c>
-      <c r="E33">
-        <v>37.50731723</v>
-      </c>
-      <c r="F33">
-        <v>55.36663026</v>
-      </c>
-      <c r="G33">
-        <v>29.13</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>19.13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>644082</v>
-      </c>
-      <c r="B34">
-        <v>688349</v>
-      </c>
-      <c r="C34">
-        <v>37.50731723</v>
-      </c>
-      <c r="D34">
-        <v>55.36663026</v>
-      </c>
-      <c r="E34">
-        <v>37.33120726</v>
-      </c>
-      <c r="F34">
-        <v>55.44584055</v>
-      </c>
-      <c r="G34">
-        <v>40.17</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>30.17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>688349</v>
-      </c>
-      <c r="B35">
-        <v>629748</v>
-      </c>
-      <c r="C35">
-        <v>37.33120726</v>
-      </c>
-      <c r="D35">
-        <v>55.44584055</v>
-      </c>
-      <c r="E35">
-        <v>37.32710791</v>
-      </c>
-      <c r="F35">
-        <v>55.49085018</v>
-      </c>
-      <c r="G35">
-        <v>20.06</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>10.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>629748</v>
-      </c>
-      <c r="B36">
-        <v>634938</v>
-      </c>
-      <c r="C36">
-        <v>37.32710791</v>
-      </c>
-      <c r="D36">
-        <v>55.49085018</v>
-      </c>
-      <c r="E36">
-        <v>37.30486807</v>
-      </c>
-      <c r="F36">
-        <v>55.48449093</v>
-      </c>
-      <c r="G36">
-        <v>14.82</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>634938</v>
-      </c>
-      <c r="B37">
-        <v>619617</v>
-      </c>
-      <c r="C37">
-        <v>37.30486807</v>
-      </c>
-      <c r="D37">
-        <v>55.48449093</v>
-      </c>
-      <c r="E37">
-        <v>37.3270685</v>
-      </c>
-      <c r="F37">
-        <v>55.55037396</v>
-      </c>
-      <c r="G37">
-        <v>29.32</v>
-      </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>19.32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>619617</v>
-      </c>
-      <c r="B38">
-        <v>634651</v>
-      </c>
-      <c r="C38">
-        <v>37.3270685</v>
-      </c>
-      <c r="D38">
-        <v>55.55037396</v>
-      </c>
-      <c r="E38">
-        <v>37.53088849</v>
-      </c>
-      <c r="F38">
-        <v>55.67131352</v>
-      </c>
-      <c r="G38">
-        <v>36.56</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>26.56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>634651</v>
-      </c>
-      <c r="B39">
-        <v>619507</v>
-      </c>
-      <c r="C39">
-        <v>37.53088849</v>
-      </c>
-      <c r="D39">
-        <v>55.67131352</v>
-      </c>
-      <c r="E39">
-        <v>37.58668957</v>
-      </c>
-      <c r="F39">
-        <v>55.69251101</v>
-      </c>
-      <c r="G39">
-        <v>19.05</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>9.050000000000001</v>
+        <v>19.1</v>
       </c>
     </row>
   </sheetData>
